--- a/Data/EC/NIT-9007539586.xlsx
+++ b/Data/EC/NIT-9007539586.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBDCA1CD-401E-4FAF-88DD-986AF4435876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CA384D2-40C9-433F-AA0A-1E178340693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A1CEBF6-B71E-45C7-8B13-828B9472DB50}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9464A6D9-9A50-44FB-A12B-939E972646C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="74">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,66 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047411736</t>
+  </si>
+  <si>
+    <t>JORGE ARMANDO TORRES SALAS</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>73008396</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE ANGULO VASQUEZ</t>
+  </si>
+  <si>
+    <t>71389726</t>
+  </si>
+  <si>
+    <t>HUMBERTO ANTONIO CESPEDES VILLADIEGO</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>1067905343</t>
+  </si>
+  <si>
+    <t>RICHARD GUTIERREZ CHICO</t>
+  </si>
+  <si>
+    <t>1047453862</t>
+  </si>
+  <si>
+    <t>JEFFERSON MARTINEZ GIRON</t>
+  </si>
+  <si>
+    <t>1047432602</t>
+  </si>
+  <si>
+    <t>EVELIN CATHERINE CARABALLO FUENTES</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>1235039730</t>
+  </si>
+  <si>
+    <t>CAMILO ANDRES MENDEZ HOYOS</t>
+  </si>
+  <si>
+    <t>1047494431</t>
+  </si>
+  <si>
+    <t>CESAR ANDRES CONTRERAS GUERRERO</t>
+  </si>
+  <si>
     <t>1007170677</t>
   </si>
   <si>
@@ -74,13 +134,10 @@
     <t>2107</t>
   </si>
   <si>
-    <t>1047432602</t>
-  </si>
-  <si>
-    <t>EVELIN CATHERINE CARABALLO FUENTES</t>
-  </si>
-  <si>
-    <t>2205</t>
+    <t>1047478511</t>
+  </si>
+  <si>
+    <t>BREINNER ARIAS PATERNINA</t>
   </si>
   <si>
     <t>1007230323</t>
@@ -92,13 +149,52 @@
     <t>2206</t>
   </si>
   <si>
-    <t>1235039730</t>
-  </si>
-  <si>
-    <t>CAMILO ANDRES MENDEZ HOYOS</t>
-  </si>
-  <si>
-    <t>2209</t>
+    <t>1001901854</t>
+  </si>
+  <si>
+    <t>RODRIGO SMITH GUERRERO JUNCO</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2312</t>
   </si>
   <si>
     <t>1044931929</t>
@@ -107,118 +203,28 @@
     <t>JESUS MANUEL CASTRO ROMERO</t>
   </si>
   <si>
-    <t>1047453862</t>
-  </si>
-  <si>
-    <t>JEFFERSON MARTINEZ GIRON</t>
-  </si>
-  <si>
-    <t>71389726</t>
-  </si>
-  <si>
-    <t>HUMBERTO ANTONIO CESPEDES VILLADIEGO</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
     <t>1047452097</t>
   </si>
   <si>
     <t>DANIELA GARCIA MACOTH</t>
   </si>
   <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
     <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>1047411736</t>
-  </si>
-  <si>
-    <t>JORGE ARMANDO TORRES SALAS</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>73008396</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE ANGULO VASQUEZ</t>
-  </si>
-  <si>
-    <t>1047478511</t>
-  </si>
-  <si>
-    <t>BREINNER ARIAS PATERNINA</t>
-  </si>
-  <si>
-    <t>1047494431</t>
-  </si>
-  <si>
-    <t>CESAR ANDRES CONTRERAS GUERRERO</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>1001901854</t>
-  </si>
-  <si>
-    <t>RODRIGO SMITH GUERRERO JUNCO</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -632,7 +638,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8262D55-D58C-52EA-0B1C-CA44C73E30CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0959ECB-3022-99AE-8786-D8D41CEBF0F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,8 +989,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058A35E7-79C7-4582-9213-D7E080AB358C}">
-  <dimension ref="B2:J71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E928C562-1E96-47AE-B8B4-C2EDCF63EA24}">
+  <dimension ref="B2:J74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1008,7 +1014,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1053,7 +1059,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1085,12 +1091,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2157760</v>
+        <v>2227813</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1101,14 +1107,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="5">
         <v>26</v>
@@ -1138,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1161,10 +1167,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>16667</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1181,13 +1187,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>33333</v>
+        <v>16667</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1375845</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1198,19 +1204,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F18" s="18">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1512795</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1221,19 +1227,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>16000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1512795</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1244,19 +1250,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>26400</v>
+        <v>16667</v>
       </c>
       <c r="G20" s="18">
-        <v>1617000</v>
+        <v>1250500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1267,16 +1273,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>25333</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
         <v>1160010</v>
@@ -1290,19 +1296,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>16000</v>
+        <v>25333</v>
       </c>
       <c r="G22" s="18">
-        <v>1512795</v>
+        <v>1160010</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1313,19 +1319,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G23" s="18">
-        <v>1160010</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1336,19 +1342,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F24" s="18">
-        <v>44000</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>1617000</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1365,13 +1371,13 @@
         <v>26</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="G25" s="18">
-        <v>1512795</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1382,19 +1388,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>18480</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>1617000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1405,19 +1411,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" s="18">
-        <v>34027</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1428,19 +1434,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>50020</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>1365000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1451,19 +1457,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>36000</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1474,19 +1480,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>32933</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1497,19 +1503,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1520,19 +1526,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F32" s="18">
-        <v>16667</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1543,19 +1549,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>39</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F33" s="18">
-        <v>16667</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>1375845</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1566,19 +1572,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F34" s="18">
-        <v>50020</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>1365000</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1589,19 +1595,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F35" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1612,19 +1618,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F36" s="18">
-        <v>18480</v>
+        <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>1617000</v>
+        <v>1300000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1635,19 +1641,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1658,16 +1664,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F38" s="18">
-        <v>100572</v>
+        <v>52000</v>
       </c>
       <c r="G38" s="18">
         <v>1300000</v>
@@ -1681,19 +1687,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F39" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1704,13 +1710,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1727,19 +1733,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1750,19 +1756,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1773,16 +1779,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F43" s="18">
-        <v>52000</v>
+        <v>100572</v>
       </c>
       <c r="G43" s="18">
         <v>1300000</v>
@@ -1796,19 +1802,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>51333</v>
       </c>
       <c r="G44" s="18">
-        <v>1160000</v>
+        <v>1540000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1819,19 +1825,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F45" s="18">
-        <v>52000</v>
+        <v>2053</v>
       </c>
       <c r="G45" s="18">
-        <v>1300000</v>
+        <v>1540000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1842,19 +1848,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F46" s="18">
-        <v>52000</v>
+        <v>44000</v>
       </c>
       <c r="G46" s="18">
-        <v>1300000</v>
+        <v>1540000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1865,19 +1871,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F47" s="18">
-        <v>46400</v>
+        <v>26400</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>1540000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1888,16 +1894,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
-        <v>46400</v>
+        <v>29387</v>
       </c>
       <c r="G48" s="18">
         <v>1160000</v>
@@ -1911,19 +1917,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F49" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G49" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1934,19 +1940,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F50" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G50" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1957,13 +1963,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1980,13 +1986,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -2003,19 +2009,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F53" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G53" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2026,13 +2032,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2049,19 +2055,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F55" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G55" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2072,13 +2078,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F56" s="18">
         <v>46400</v>
@@ -2095,19 +2101,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F57" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G57" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2118,19 +2124,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F58" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G58" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2141,13 +2147,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2164,13 +2170,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
@@ -2187,19 +2193,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G61" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2210,19 +2216,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F62" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G62" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2233,13 +2239,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2256,75 +2262,144 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F64" s="18">
-        <v>32933</v>
+        <v>46400</v>
       </c>
       <c r="G64" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="22" t="s">
+      <c r="B65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G65" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F65" s="24">
-        <v>29387</v>
-      </c>
-      <c r="G65" s="24">
+      <c r="F66" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G66" s="18">
         <v>1160000</v>
       </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="26"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="32"/>
-      <c r="H70" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" s="32"/>
-      <c r="H71" s="1" t="s">
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F67" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G67" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="24">
+        <v>34027</v>
+      </c>
+      <c r="G68" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="26"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" s="32"/>
+      <c r="H73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="C74" s="32"/>
+      <c r="H74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H73:J73"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9007539586.xlsx
+++ b/Data/EC/NIT-9007539586.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CA384D2-40C9-433F-AA0A-1E178340693D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9752E4-6495-42BD-89D5-10D058D5E83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9464A6D9-9A50-44FB-A12B-939E972646C2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{41C12D96-9A33-46A0-BB15-A353A88D4C0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="72">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,84 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1007170677</t>
+  </si>
+  <si>
+    <t>JOVANNA ANDREA OTERO BETANCOURT</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>1047432602</t>
+  </si>
+  <si>
+    <t>EVELIN CATHERINE CARABALLO FUENTES</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>1007230323</t>
+  </si>
+  <si>
+    <t>CAMILO ANDRES ATENCIO HERRERA</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>71389726</t>
+  </si>
+  <si>
+    <t>HUMBERTO ANTONIO CESPEDES VILLADIEGO</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>1047453862</t>
+  </si>
+  <si>
+    <t>JEFFERSON MARTINEZ GIRON</t>
+  </si>
+  <si>
+    <t>1235039730</t>
+  </si>
+  <si>
+    <t>CAMILO ANDRES MENDEZ HOYOS</t>
+  </si>
+  <si>
+    <t>1044931929</t>
+  </si>
+  <si>
+    <t>JESUS MANUEL CASTRO ROMERO</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>1047452097</t>
+  </si>
+  <si>
+    <t>DANIELA GARCIA MACOTH</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
     <t>1047411736</t>
   </si>
   <si>
@@ -80,151 +158,67 @@
     <t>LUIS ENRIQUE ANGULO VASQUEZ</t>
   </si>
   <si>
-    <t>71389726</t>
-  </si>
-  <si>
-    <t>HUMBERTO ANTONIO CESPEDES VILLADIEGO</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>1067905343</t>
-  </si>
-  <si>
-    <t>RICHARD GUTIERREZ CHICO</t>
-  </si>
-  <si>
-    <t>1047453862</t>
-  </si>
-  <si>
-    <t>JEFFERSON MARTINEZ GIRON</t>
-  </si>
-  <si>
-    <t>1047432602</t>
-  </si>
-  <si>
-    <t>EVELIN CATHERINE CARABALLO FUENTES</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>1235039730</t>
-  </si>
-  <si>
-    <t>CAMILO ANDRES MENDEZ HOYOS</t>
-  </si>
-  <si>
     <t>1047494431</t>
   </si>
   <si>
     <t>CESAR ANDRES CONTRERAS GUERRERO</t>
   </si>
   <si>
-    <t>1007170677</t>
-  </si>
-  <si>
-    <t>JOVANNA ANDREA OTERO BETANCOURT</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
     <t>1047478511</t>
   </si>
   <si>
     <t>BREINNER ARIAS PATERNINA</t>
   </si>
   <si>
-    <t>1007230323</t>
-  </si>
-  <si>
-    <t>CAMILO ANDRES ATENCIO HERRERA</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
     <t>1001901854</t>
   </si>
   <si>
     <t>RODRIGO SMITH GUERRERO JUNCO</t>
   </si>
   <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
     <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>1044931929</t>
-  </si>
-  <si>
-    <t>JESUS MANUEL CASTRO ROMERO</t>
-  </si>
-  <si>
-    <t>1047452097</t>
-  </si>
-  <si>
-    <t>DANIELA GARCIA MACOTH</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -323,7 +317,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -336,9 +332,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -538,23 +532,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,10 +576,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,7 +632,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0959ECB-3022-99AE-8786-D8D41CEBF0F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E49BFD-8332-EF55-2896-C5844E057038}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,8 +983,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E928C562-1E96-47AE-B8B4-C2EDCF63EA24}">
-  <dimension ref="B2:J74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003464F5-5356-4B09-BA90-64D9D915353E}">
+  <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1014,7 +1008,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1059,7 +1053,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1091,12 +1085,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2227813</v>
+        <v>2157760</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1107,14 +1101,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="5">
         <v>26</v>
@@ -1144,13 +1138,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1167,10 +1161,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>16667</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1187,13 +1181,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>16667</v>
+        <v>33333</v>
       </c>
       <c r="G17" s="18">
-        <v>1375845</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1204,19 +1198,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="G18" s="18">
-        <v>1512795</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1227,13 +1221,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F19" s="18">
         <v>16000</v>
@@ -1250,19 +1244,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F20" s="18">
-        <v>16667</v>
+        <v>25333</v>
       </c>
       <c r="G20" s="18">
-        <v>1250500</v>
+        <v>1160010</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1273,19 +1267,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="G21" s="18">
-        <v>1160010</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1296,19 +1290,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F22" s="18">
-        <v>25333</v>
+        <v>26400</v>
       </c>
       <c r="G22" s="18">
-        <v>1160010</v>
+        <v>1617000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1319,19 +1313,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F23" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>1512795</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1342,19 +1336,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>1160010</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1365,16 +1359,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F25" s="18">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
         <v>1000000</v>
@@ -1388,16 +1382,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F26" s="18">
-        <v>18480</v>
+        <v>44000</v>
       </c>
       <c r="G26" s="18">
         <v>1617000</v>
@@ -1411,19 +1405,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>34027</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1434,19 +1428,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F28" s="18">
-        <v>50020</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1365000</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1457,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F29" s="18">
-        <v>36000</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1480,19 +1474,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F30" s="18">
-        <v>32933</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1503,19 +1497,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1526,19 +1520,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>16667</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1365000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1549,19 +1543,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>42</v>
-      </c>
       <c r="F33" s="18">
-        <v>52000</v>
+        <v>16667</v>
       </c>
       <c r="G33" s="18">
-        <v>1300000</v>
+        <v>1375845</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1572,19 +1566,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>43</v>
-      </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>18480</v>
       </c>
       <c r="G34" s="18">
-        <v>1300000</v>
+        <v>1617000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1595,19 +1589,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>50020</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>1365000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1618,19 +1612,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F36" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1641,16 +1635,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="18">
-        <v>52000</v>
+        <v>100572</v>
       </c>
       <c r="G37" s="18">
         <v>1300000</v>
@@ -1664,19 +1658,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F38" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1687,19 +1681,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1710,13 +1704,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1733,19 +1727,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1756,13 +1750,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1779,19 +1773,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F43" s="18">
-        <v>100572</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1802,19 +1796,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F44" s="18">
-        <v>51333</v>
+        <v>52000</v>
       </c>
       <c r="G44" s="18">
-        <v>1540000</v>
+        <v>1300000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1825,19 +1819,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="18">
-        <v>2053</v>
+        <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1540000</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1848,19 +1842,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="F46" s="18">
-        <v>44000</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="18">
-        <v>1540000</v>
+        <v>1300000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1871,19 +1865,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F47" s="18">
-        <v>26400</v>
+        <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>1540000</v>
+        <v>1160000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1894,19 +1888,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F48" s="18">
-        <v>29387</v>
+        <v>52000</v>
       </c>
       <c r="G48" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1917,13 +1911,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F49" s="18">
         <v>46400</v>
@@ -1940,19 +1934,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F50" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G50" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1963,13 +1957,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1986,19 +1980,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F52" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G52" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2009,13 +2003,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
@@ -2032,19 +2026,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F54" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G54" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2055,13 +2049,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2078,19 +2072,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F56" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G56" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2101,13 +2095,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="F57" s="18">
         <v>46400</v>
@@ -2124,19 +2118,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F58" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G58" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2147,13 +2141,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2170,19 +2164,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F60" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G60" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2193,13 +2187,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
         <v>46400</v>
@@ -2216,19 +2210,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G62" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2239,13 +2233,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F63" s="18">
         <v>46400</v>
@@ -2262,144 +2256,75 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
-        <v>46400</v>
+        <v>32933</v>
       </c>
       <c r="G64" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F65" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G65" s="18">
+      <c r="B65" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="24">
+        <v>29387</v>
+      </c>
+      <c r="G65" s="24">
         <v>1160000</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F66" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F68" s="24">
-        <v>34027</v>
-      </c>
-      <c r="G68" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="26"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="32"/>
-      <c r="H73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="32" t="s">
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="26"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="32"/>
+      <c r="H70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="H71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="H74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H70:J70"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
